--- a/Script/OHL Strategy.xlsx
+++ b/Script/OHL Strategy.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arun.jose\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B63568-EA09-4693-A81B-AB31634E0EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBAE760-712D-42EA-8326-FE0D9E0BEAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9.30 Trade Strategy" sheetId="4" r:id="rId1"/>
     <sheet name="9.49 Trade Strategy" sheetId="3" r:id="rId2"/>
     <sheet name="9.30 Strategy with SL" sheetId="5" r:id="rId3"/>
+    <sheet name="Sector-Moving Strategy" sheetId="6" r:id="rId4"/>
+    <sheet name="Swing Trade" sheetId="7" r:id="rId5"/>
+    <sheet name=" Moving Average" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -156,13 +169,498 @@
   </si>
   <si>
     <t>Simple profit</t>
+  </si>
+  <si>
+    <t>2PB%-2SL%(1 shares-Profit and 1 is  loss)</t>
+  </si>
+  <si>
+    <t>Hard Day</t>
+  </si>
+  <si>
+    <t>2PB%-2SL%(1 shares profit and 1 loss)</t>
+  </si>
+  <si>
+    <t>LOSS</t>
+  </si>
+  <si>
+    <t>2PB%-2SL%(2shares profit)</t>
+  </si>
+  <si>
+    <t>2PB%-2SL%(2shares LOSS)</t>
+  </si>
+  <si>
+    <t>Easy Day, But high volatile</t>
+  </si>
+  <si>
+    <t>Strict SL,PB and number of shares     SL:2%   PB:2%    No.of Shares : 2% , No  Quit inbetween</t>
+  </si>
+  <si>
+    <t>Added Stchastics and RSI here</t>
+  </si>
+  <si>
+    <t>2PB%-2SL%(1shares profit and loss)</t>
+  </si>
+  <si>
+    <t>used rsi and stocasticsafter the reversal</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Open Gap Up/Down</t>
+  </si>
+  <si>
+    <t>Overall Profit</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>FMCG</t>
+  </si>
+  <si>
+    <t>Perfect Entry. Perfect Trade</t>
+  </si>
+  <si>
+    <t>Booked Profit</t>
+  </si>
+  <si>
+    <t>High Profit</t>
+  </si>
+  <si>
+    <t>High Loss</t>
+  </si>
+  <si>
+    <t>Day Profit</t>
+  </si>
+  <si>
+    <t>Day Loss</t>
+  </si>
+  <si>
+    <t>Booked Loss</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Entry Not Happened Because of high limit (Limit Given 2X)</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESTLEIND </t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>Entry Not Happened Because of high limit (Limit Given 1X)</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>Whensday</t>
+  </si>
+  <si>
+    <t>OIL &amp; GAS</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Early trade. High volatility</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <r>
+      <t>Strategy:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trade with Sector trend.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Time : 9.45 : Select the sector having the strongest opposite trend of the nifty.	      Select the stocks in the same sector having the most contributed stocks in the Sector  and trade with the same direction of the stock.
+		Conider the 20-5 Moving Avarage for selecting the best trending stocks and trade with trend. The maximum loss per day is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on entire capital.</t>
+    </r>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Side wise day. Don't trade in side wise day</t>
+  </si>
+  <si>
+    <t>WEEK- 1</t>
+  </si>
+  <si>
+    <t>1. Best suitable Stop Loss for a single trade is 1 %. (Solution : Change in script)- Done</t>
+  </si>
+  <si>
+    <t>2. As  per the first 4 days data, trading with full amount is more profitable than the half amount in each trade. Since the no.of the loosing trades are very low, If moving SL is used (Solution : Final calculation) : Done</t>
+  </si>
+  <si>
+    <t>3. Moving Stop Loss is more and more beneficial against the fixed Stop - (Soltion : Manual changing for 1 more week required for confirmation).</t>
+  </si>
+  <si>
+    <t>WEEK- 2</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>METAL</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>From Here onwords the trade will be monitored till 3:00</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>-0.94 </t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>WEEK- 3</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUY </t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>WIPRO</t>
+  </si>
+  <si>
+    <t>Initial Stoploss : 1%, Initial profit booking : 2%</t>
+  </si>
+  <si>
+    <t>It was a Successful trade. But as SL changed it got triggered</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>Traded against the trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDL </t>
+  </si>
+  <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis : </t>
+  </si>
+  <si>
+    <t>No.of Trades : 15
+total profit : 13.85%
+total loss : 4.5%
+final total profit/loss : 9.35%
+No.of Loss Trades :  3
+No.of won Trades :  12
+No.of Trades booked 2% more : 3
+No.of Trades booked 1% more : 5
+No.of Trades Traded high profit more that 2% : 4
+No.of Trades Traded high loss more that 1% : 4</t>
+  </si>
+  <si>
+    <t>No.of Trades : 17
+total profit : 16.5%
+total loss : 3%
+final total profit/loss : 13.5%
+No.of Loss Trades :  5
+No.of Loss won :  12
+No.of Trades booked 2% more : 5
+No.of Trades booked 1% more : 11
+No.of Trades Traded high profit more that 2% : 9
+No.of Trades Traded high loss more that 1% : 3</t>
+  </si>
+  <si>
+    <t>WEEK- 4</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>WEEK- 5</t>
+  </si>
+  <si>
+    <t>SPX/DJI/NDQ</t>
+  </si>
+  <si>
+    <t>DRREDDY</t>
+  </si>
+  <si>
+    <t>PHARMA</t>
+  </si>
+  <si>
+    <t>1.92/2.15/1.83</t>
+  </si>
+  <si>
+    <t>DIVLAB</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Wrong Sector  selected, Since Nifty moving Up</t>
+  </si>
+  <si>
+    <t>.84/.69/.89</t>
+  </si>
+  <si>
+    <t>Thuesday</t>
+  </si>
+  <si>
+    <t>EICHERMOT</t>
+  </si>
+  <si>
+    <t>Entry is as Per the Strategy</t>
+  </si>
+  <si>
+    <t>MARUTHI</t>
+  </si>
+  <si>
+    <t>Whenesday</t>
+  </si>
+  <si>
+    <t>WEEK- 6</t>
+  </si>
+  <si>
+    <t>Strategy :  15 Min candle ,check in the first 2 cadle strategy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.13/0.28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Initially the price moved as expected, After Reversal Happaned and came back to profit again</t>
+    </r>
+  </si>
+  <si>
+    <t>Day End Profit(% Approxi)</t>
+  </si>
+  <si>
+    <t>Over All End Profit</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>Finel</t>
+  </si>
+  <si>
+    <t>Entry was correct as per the strategy. But strategy doen't worked</t>
+  </si>
+  <si>
+    <t>BAJAJFINSV</t>
+  </si>
+  <si>
+    <t>BAJFINANCE</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>2.62/1.37/4.26</t>
+  </si>
+  <si>
+    <t>Perfect Entry and expected move</t>
+  </si>
+  <si>
+    <t>Reversal Chartink Strategy: 15 min</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>PETRONET</t>
+  </si>
+  <si>
+    <t>Hikenashi-50-200-SMA-Swing-Trade</t>
+  </si>
+  <si>
+    <r>
+      <t>Strategy:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trade with the turn in moving average.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Buy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +692,105 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF262626"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF505050"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +815,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -238,11 +899,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -273,11 +943,329 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +1552,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="3" width="17.42578125" customWidth="1"/>
@@ -576,7 +1564,7 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -605,7 +1593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -631,7 +1619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -655,7 +1643,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
@@ -667,21 +1655,21 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
@@ -693,7 +1681,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
@@ -705,7 +1693,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="7"/>
@@ -717,7 +1705,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
@@ -729,7 +1717,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -741,7 +1729,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
@@ -753,7 +1741,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -782,7 +1770,7 @@
       <selection activeCell="A15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="3" width="17.42578125" customWidth="1"/>
@@ -794,7 +1782,7 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -823,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -846,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -869,7 +1857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -895,7 +1883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -924,7 +1912,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -947,7 +1935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -973,7 +1961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -999,7 +1987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1025,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1051,7 +2039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1077,7 +2065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1103,7 +2091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1126,18 +2114,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1150,13 +2138,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7A7D1-ACAA-4C0C-AC1B-280DB704F2B5}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -1169,7 +2157,7 @@
     <col min="9" max="9" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +2186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -1224,7 +2212,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -1250,7 +2238,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -1279,7 +2267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -1308,7 +2296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -1337,7 +2325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -1366,20 +2354,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>44699</v>
       </c>
       <c r="C8" s="21">
         <v>4</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>0.02</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>0.02</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -1395,78 +2383,4687 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <v>44700</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <v>44701</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="21"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="21"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="21"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="21">
+        <v>10</v>
+      </c>
+      <c r="B15" s="27">
+        <v>44704</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="25">
+        <v>2</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0.02</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="21">
+        <v>11</v>
+      </c>
+      <c r="B16" s="27">
+        <v>44705</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="25">
+        <v>2</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="25">
+        <v>12</v>
+      </c>
+      <c r="B17" s="27">
+        <v>44706</v>
+      </c>
+      <c r="C17" s="25">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="25">
+        <v>2</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25">
+        <v>2</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:I12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108B1758-20F2-4D2B-ACFC-F3C0BCE1B838}">
+  <dimension ref="A1:AB102"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:X22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="15" width="24.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="56.42578125" customWidth="1"/>
+    <col min="18" max="18" width="35.42578125" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="154">
+        <v>44732</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="45">
+        <v>113</v>
+      </c>
+      <c r="G8" s="45">
+        <v>2</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>10</v>
+      </c>
+      <c r="J8" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="155">
+        <v>2</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="156">
+        <v>2</v>
+      </c>
+      <c r="N8" s="157">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="O8" s="92"/>
+      <c r="P8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="46">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="44">
+        <v>928</v>
+      </c>
+      <c r="G9" s="44">
+        <v>2</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44">
+        <v>3</v>
+      </c>
+      <c r="J9" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="155"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="154">
+        <v>44733</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="44">
+        <v>76</v>
+      </c>
+      <c r="G10" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44">
+        <v>6</v>
+      </c>
+      <c r="J10" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="155">
+        <v>1.75</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="156">
+        <v>3.75</v>
+      </c>
+      <c r="N10" s="157">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="O10" s="92"/>
+      <c r="P10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="46">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="44">
+        <v>14</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="I11" s="44">
+        <v>1.3</v>
+      </c>
+      <c r="J11" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="155"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="37"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="49">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="44">
+        <v>337</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44">
+        <v>1.8</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="155"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="37"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="121">
+        <v>44734</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="49">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="44">
+        <v>75</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0</v>
+      </c>
+      <c r="I13" s="44">
+        <v>1.3</v>
+      </c>
+      <c r="J13" s="44">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K13" s="155">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="155">
+        <v>3.95</v>
+      </c>
+      <c r="N13" s="153">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="O13" s="91"/>
+      <c r="P13" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="37"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="121"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="51">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="53">
+        <v>248</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="53">
+        <v>0</v>
+      </c>
+      <c r="J14" s="52">
+        <v>3</v>
+      </c>
+      <c r="K14" s="155"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="37"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="121"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="49">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="44">
+        <v>14</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="H15" s="44">
+        <v>0</v>
+      </c>
+      <c r="I15" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="155"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="T15" s="131"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="37"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="121"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="49">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="44">
+        <v>799</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="44">
+        <v>0</v>
+      </c>
+      <c r="I16" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="J16" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="155"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="37"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="121">
+        <v>44735</v>
+      </c>
+      <c r="B17" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="51">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="53">
+        <v>798</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="53">
+        <v>0</v>
+      </c>
+      <c r="J17" s="53">
+        <v>2</v>
+      </c>
+      <c r="K17" s="128">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L17" s="37"/>
+      <c r="M17" s="128">
+        <v>5.05</v>
+      </c>
+      <c r="N17" s="162">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="O17" s="95"/>
+      <c r="P17" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="37"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="121"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="49">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="44">
+        <v>74</v>
+      </c>
+      <c r="G18" s="44">
+        <v>1.8</v>
+      </c>
+      <c r="H18" s="44">
+        <v>0</v>
+      </c>
+      <c r="I18" s="44">
+        <v>2.8</v>
+      </c>
+      <c r="J18" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K18" s="128"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="37"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="121"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="49">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="44">
+        <v>182</v>
+      </c>
+      <c r="G19" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="44">
+        <v>0</v>
+      </c>
+      <c r="I19" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J19" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="128"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="131"/>
+      <c r="X19" s="37"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="121"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="49">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="44">
+        <v>545</v>
+      </c>
+      <c r="G20" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0</v>
+      </c>
+      <c r="I20" s="44">
+        <v>2</v>
+      </c>
+      <c r="J20" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="K20" s="128"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="37"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="121">
+        <v>44736</v>
+      </c>
+      <c r="B21" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="44">
+        <v>337</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0</v>
+      </c>
+      <c r="I21" s="44">
+        <v>1.3</v>
+      </c>
+      <c r="J21" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="K21" s="163">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="163">
+        <v>4.5</v>
+      </c>
+      <c r="N21" s="162">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="O21" s="95"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="37"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="121"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="51">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="53">
+        <v>74</v>
+      </c>
+      <c r="G22" s="53">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="53">
+        <v>0</v>
+      </c>
+      <c r="J22" s="53">
+        <v>1.6</v>
+      </c>
+      <c r="K22" s="163"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="37"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="37"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="158" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" customHeight="1">
+      <c r="A25" s="159" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+    </row>
+    <row r="33" spans="1:24" ht="18.75">
+      <c r="A33" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="51">
+        <v>0.4375</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="52">
+        <v>427</v>
+      </c>
+      <c r="G34" s="52">
+        <v>0</v>
+      </c>
+      <c r="H34" s="52">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="52">
+        <v>0</v>
+      </c>
+      <c r="J34" s="52">
+        <v>2</v>
+      </c>
+      <c r="K34" s="52">
+        <v>1</v>
+      </c>
+      <c r="L34" s="37"/>
+      <c r="M34" s="52">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="66">
+        <v>-1.4</v>
+      </c>
+      <c r="O34" s="85"/>
+      <c r="P34" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="65">
+        <v>1588</v>
+      </c>
+      <c r="G35" s="50">
+        <v>2</v>
+      </c>
+      <c r="H35" s="50">
+        <v>0</v>
+      </c>
+      <c r="I35" s="50">
+        <v>25</v>
+      </c>
+      <c r="J35" s="50">
+        <v>0</v>
+      </c>
+      <c r="K35" s="50">
+        <v>2</v>
+      </c>
+      <c r="L35" s="37"/>
+      <c r="M35" s="50">
+        <v>1</v>
+      </c>
+      <c r="N35" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="O35" s="86"/>
+      <c r="P35" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="50">
+        <v>2230</v>
+      </c>
+      <c r="G36" s="50">
+        <v>2.8</v>
+      </c>
+      <c r="H36" s="50">
+        <v>0</v>
+      </c>
+      <c r="I36" s="50">
+        <v>2.8</v>
+      </c>
+      <c r="J36" s="50">
+        <v>0</v>
+      </c>
+      <c r="K36" s="50">
+        <v>2.8</v>
+      </c>
+      <c r="L36" s="37"/>
+      <c r="M36" s="50">
+        <v>3.8</v>
+      </c>
+      <c r="N36" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="O36" s="67"/>
+      <c r="P36" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="50">
+        <v>93</v>
+      </c>
+      <c r="G37" s="50">
+        <v>2</v>
+      </c>
+      <c r="H37" s="50">
+        <v>0</v>
+      </c>
+      <c r="I37" s="50">
+        <v>2.12</v>
+      </c>
+      <c r="J37" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="50">
+        <v>2</v>
+      </c>
+      <c r="L37" s="37"/>
+      <c r="M37" s="50">
+        <v>5.8</v>
+      </c>
+      <c r="N37" s="68">
+        <v>-0.16</v>
+      </c>
+      <c r="O37" s="68"/>
+      <c r="P37" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="51">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="52">
+        <v>93</v>
+      </c>
+      <c r="G38" s="52">
+        <v>0</v>
+      </c>
+      <c r="H38" s="52">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="52">
+        <v>0</v>
+      </c>
+      <c r="J38" s="52">
+        <v>12</v>
+      </c>
+      <c r="K38" s="52">
+        <v>1</v>
+      </c>
+      <c r="L38" s="37"/>
+      <c r="M38" s="50">
+        <v>4.8</v>
+      </c>
+      <c r="N38" s="68">
+        <v>-0.2</v>
+      </c>
+      <c r="O38" s="68"/>
+      <c r="P38" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+    </row>
+    <row r="44" spans="1:24" ht="18.75">
+      <c r="A44" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q44" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="121">
+        <v>44746</v>
+      </c>
+      <c r="B45" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="49">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="50">
+        <v>691</v>
+      </c>
+      <c r="G45" s="50">
+        <v>1</v>
+      </c>
+      <c r="H45" s="50">
+        <v>0</v>
+      </c>
+      <c r="I45" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="J45" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="K45" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="152"/>
+      <c r="M45" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="148">
+        <v>-0.9</v>
+      </c>
+      <c r="O45" s="85"/>
+      <c r="P45" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="121"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="75">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D46" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="77">
+        <v>262</v>
+      </c>
+      <c r="G46" s="76">
+        <v>0</v>
+      </c>
+      <c r="H46" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="J46" s="76">
+        <v>0.9</v>
+      </c>
+      <c r="K46" s="151"/>
+      <c r="L46" s="152"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="142">
+        <v>44747</v>
+      </c>
+      <c r="B47" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="78">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="79">
+        <v>1932</v>
+      </c>
+      <c r="G47" s="79">
+        <v>2</v>
+      </c>
+      <c r="H47" s="79">
+        <v>0</v>
+      </c>
+      <c r="I47" s="79">
+        <v>2</v>
+      </c>
+      <c r="J47" s="79">
+        <v>0.88</v>
+      </c>
+      <c r="K47" s="146">
+        <v>5</v>
+      </c>
+      <c r="L47" s="135"/>
+      <c r="M47" s="146">
+        <v>5.5</v>
+      </c>
+      <c r="N47" s="149">
+        <v>0.47</v>
+      </c>
+      <c r="O47" s="88"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="142"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="78">
+        <v>0.4375</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="79">
+        <v>664</v>
+      </c>
+      <c r="G48" s="79">
+        <v>1</v>
+      </c>
+      <c r="H48" s="79">
+        <v>0</v>
+      </c>
+      <c r="I48" s="79">
+        <v>3</v>
+      </c>
+      <c r="J48" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="146"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="146"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="134" t="s">
+        <v>121</v>
+      </c>
+      <c r="S48" s="135"/>
+      <c r="T48" s="135"/>
+      <c r="U48" s="135"/>
+      <c r="V48" s="135"/>
+      <c r="W48" s="135"/>
+      <c r="X48" s="135"/>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="143"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="80">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D49" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="81">
+        <v>673</v>
+      </c>
+      <c r="G49" s="81">
+        <v>2</v>
+      </c>
+      <c r="H49" s="81">
+        <v>0</v>
+      </c>
+      <c r="I49" s="81">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J49" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="K49" s="147"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="150"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="135"/>
+      <c r="S49" s="135"/>
+      <c r="T49" s="135"/>
+      <c r="U49" s="135"/>
+      <c r="V49" s="135"/>
+      <c r="W49" s="135"/>
+      <c r="X49" s="135"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="138">
+        <v>44748</v>
+      </c>
+      <c r="B50" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="49">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D50" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="79">
+        <v>449</v>
+      </c>
+      <c r="G50" s="79">
+        <v>1</v>
+      </c>
+      <c r="H50" s="79">
+        <v>0</v>
+      </c>
+      <c r="I50" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="J50" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="K50" s="136">
+        <v>4.5</v>
+      </c>
+      <c r="L50" s="37"/>
+      <c r="M50" s="136">
+        <v>10</v>
+      </c>
+      <c r="N50" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="O50" s="97"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
+      <c r="U50" s="135"/>
+      <c r="V50" s="135"/>
+      <c r="W50" s="135"/>
+      <c r="X50" s="135"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="121"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="49">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="50">
+        <v>165</v>
+      </c>
+      <c r="G51" s="79">
+        <v>2</v>
+      </c>
+      <c r="H51" s="79">
+        <v>0</v>
+      </c>
+      <c r="I51" s="79">
+        <v>3.1</v>
+      </c>
+      <c r="J51" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="K51" s="137"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="137"/>
+      <c r="N51" s="141"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="135"/>
+      <c r="T51" s="135"/>
+      <c r="U51" s="135"/>
+      <c r="V51" s="135"/>
+      <c r="W51" s="135"/>
+      <c r="X51" s="135"/>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="121"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="51">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D52" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="52">
+        <v>588</v>
+      </c>
+      <c r="G52" s="76">
+        <v>0</v>
+      </c>
+      <c r="H52" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="52">
+        <v>2.9</v>
+      </c>
+      <c r="J52" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="K52" s="137"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="R52" s="135"/>
+      <c r="S52" s="135"/>
+      <c r="T52" s="135"/>
+      <c r="U52" s="135"/>
+      <c r="V52" s="135"/>
+      <c r="W52" s="135"/>
+      <c r="X52" s="135"/>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="121"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="49">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="50">
+        <v>512</v>
+      </c>
+      <c r="G53" s="79">
+        <v>1</v>
+      </c>
+      <c r="H53" s="79">
+        <v>0</v>
+      </c>
+      <c r="I53" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="J53" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="K53" s="137"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="137"/>
+      <c r="N53" s="141"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="135"/>
+      <c r="S53" s="135"/>
+      <c r="T53" s="135"/>
+      <c r="U53" s="135"/>
+      <c r="V53" s="135"/>
+      <c r="W53" s="135"/>
+      <c r="X53" s="135"/>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="121"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="49">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="50">
+        <v>98</v>
+      </c>
+      <c r="G54" s="79">
+        <v>1</v>
+      </c>
+      <c r="H54" s="79">
+        <v>0</v>
+      </c>
+      <c r="I54" s="79">
+        <v>2.1</v>
+      </c>
+      <c r="J54" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="K54" s="137"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="137"/>
+      <c r="N54" s="141"/>
+      <c r="O54" s="87"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="135"/>
+      <c r="S54" s="135"/>
+      <c r="T54" s="135"/>
+      <c r="U54" s="135"/>
+      <c r="V54" s="135"/>
+      <c r="W54" s="135"/>
+      <c r="X54" s="135"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="121">
+        <v>44749</v>
+      </c>
+      <c r="B55" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="49">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="50">
+        <v>287</v>
+      </c>
+      <c r="G55" s="79">
+        <v>1</v>
+      </c>
+      <c r="H55" s="79">
+        <v>0</v>
+      </c>
+      <c r="I55" s="79">
+        <v>1.9</v>
+      </c>
+      <c r="J55" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="128">
+        <v>1.5</v>
+      </c>
+      <c r="L55" s="37"/>
+      <c r="M55" s="132">
+        <v>11.5</v>
+      </c>
+      <c r="N55" s="132">
+        <v>0.78</v>
+      </c>
+      <c r="O55" s="90"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="135"/>
+      <c r="S55" s="135"/>
+      <c r="T55" s="135"/>
+      <c r="U55" s="135"/>
+      <c r="V55" s="135"/>
+      <c r="W55" s="135"/>
+      <c r="X55" s="135"/>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="121"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="49">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="50">
+        <v>748</v>
+      </c>
+      <c r="G56" s="79">
+        <v>2</v>
+      </c>
+      <c r="H56" s="79">
+        <v>0</v>
+      </c>
+      <c r="I56" s="79">
+        <v>3</v>
+      </c>
+      <c r="J56" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="K56" s="128"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="135"/>
+      <c r="S56" s="135"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="135"/>
+      <c r="V56" s="135"/>
+      <c r="W56" s="135"/>
+      <c r="X56" s="135"/>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="121"/>
+      <c r="B57" s="131"/>
+      <c r="C57" s="51">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D57" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="52">
+        <v>672</v>
+      </c>
+      <c r="G57" s="76">
+        <v>0</v>
+      </c>
+      <c r="H57" s="76">
+        <v>1</v>
+      </c>
+      <c r="I57" s="76">
+        <v>0</v>
+      </c>
+      <c r="J57" s="76">
+        <v>1.4</v>
+      </c>
+      <c r="K57" s="128"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="132"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="R57" s="135"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="135"/>
+      <c r="U57" s="135"/>
+      <c r="V57" s="135"/>
+      <c r="W57" s="135"/>
+      <c r="X57" s="135"/>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="121"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="51">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D58" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="52">
+        <v>331</v>
+      </c>
+      <c r="G58" s="76">
+        <v>0</v>
+      </c>
+      <c r="H58" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="76">
+        <v>0</v>
+      </c>
+      <c r="J58" s="76">
+        <v>3</v>
+      </c>
+      <c r="K58" s="128"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="131"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="135"/>
+      <c r="U58" s="135"/>
+      <c r="V58" s="135"/>
+      <c r="W58" s="135"/>
+      <c r="X58" s="135"/>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="121">
+        <v>44750</v>
+      </c>
+      <c r="B59" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="49">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="50">
+        <v>648</v>
+      </c>
+      <c r="G59" s="79">
+        <v>2</v>
+      </c>
+      <c r="H59" s="79">
+        <v>0</v>
+      </c>
+      <c r="I59" s="79">
+        <v>2.7</v>
+      </c>
+      <c r="J59" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="K59" s="128">
+        <v>2</v>
+      </c>
+      <c r="L59" s="37"/>
+      <c r="M59" s="128">
+        <v>13.5</v>
+      </c>
+      <c r="N59" s="128">
+        <v>0.87</v>
+      </c>
+      <c r="O59" s="86"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="135"/>
+      <c r="T59" s="135"/>
+      <c r="U59" s="135"/>
+      <c r="V59" s="135"/>
+      <c r="W59" s="135"/>
+      <c r="X59" s="135"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="121"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="51">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D60" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="52">
+        <v>28</v>
+      </c>
+      <c r="G60" s="76">
+        <v>0</v>
+      </c>
+      <c r="H60" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="I60" s="76">
+        <v>0</v>
+      </c>
+      <c r="J60" s="76">
+        <v>1.5</v>
+      </c>
+      <c r="K60" s="128"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="128"/>
+      <c r="N60" s="128"/>
+      <c r="O60" s="86"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="121"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="49">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="50">
+        <v>162</v>
+      </c>
+      <c r="G61" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="79">
+        <v>0</v>
+      </c>
+      <c r="I61" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="J61" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="K61" s="128"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="128"/>
+      <c r="N61" s="128"/>
+      <c r="O61" s="86"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+    </row>
+    <row r="67" spans="1:24" ht="18.75">
+      <c r="A67" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M67" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N67" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q67" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" s="121">
+        <v>44739</v>
+      </c>
+      <c r="B68" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="49">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="50">
+        <v>77</v>
+      </c>
+      <c r="G68" s="50">
+        <v>2</v>
+      </c>
+      <c r="H68" s="50">
+        <v>0</v>
+      </c>
+      <c r="I68" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="J68" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="132">
+        <v>2.6</v>
+      </c>
+      <c r="L68" s="84"/>
+      <c r="M68" s="132">
+        <v>2.6</v>
+      </c>
+      <c r="N68" s="148">
+        <v>-0.52</v>
+      </c>
+      <c r="O68" s="85"/>
+      <c r="P68" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" s="121"/>
+      <c r="B69" s="131"/>
+      <c r="C69" s="49">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="50">
+        <v>165</v>
+      </c>
+      <c r="G69" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="H69" s="50">
+        <v>0</v>
+      </c>
+      <c r="I69" s="50">
+        <v>2</v>
+      </c>
+      <c r="J69" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="K69" s="132"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="148"/>
+      <c r="O69" s="85"/>
+      <c r="P69" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70" s="121">
+        <v>44754</v>
+      </c>
+      <c r="B70" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="51">
+        <v>0.40625</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="52">
+        <v>210</v>
+      </c>
+      <c r="G70" s="52">
+        <v>0</v>
+      </c>
+      <c r="H70" s="52">
+        <v>1</v>
+      </c>
+      <c r="I70" s="52">
+        <v>0</v>
+      </c>
+      <c r="J70" s="52">
+        <v>2</v>
+      </c>
+      <c r="K70" s="152">
+        <v>0</v>
+      </c>
+      <c r="L70" s="37"/>
+      <c r="M70" s="152">
+        <v>2.6</v>
+      </c>
+      <c r="N70" s="148">
+        <v>-0.52</v>
+      </c>
+      <c r="O70" s="85"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" s="121"/>
+      <c r="B71" s="131"/>
+      <c r="C71" s="49">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="50">
+        <v>358</v>
+      </c>
+      <c r="G71" s="50">
+        <v>1</v>
+      </c>
+      <c r="H71" s="50">
+        <v>0</v>
+      </c>
+      <c r="I71" s="50">
+        <v>1.2</v>
+      </c>
+      <c r="J71" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="K71" s="152"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="152"/>
+      <c r="N71" s="148"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" s="125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+    </row>
+    <row r="77" spans="1:24" ht="18.75">
+      <c r="A77" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J77" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L77" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M77" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N77" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O77" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q77" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R77" s="34"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" s="121">
+        <v>44760</v>
+      </c>
+      <c r="B78" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="49">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="50">
+        <v>53</v>
+      </c>
+      <c r="G78" s="50">
+        <v>2</v>
+      </c>
+      <c r="H78" s="50">
+        <v>0</v>
+      </c>
+      <c r="I78" s="50">
+        <v>4.3</v>
+      </c>
+      <c r="J78" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="K78" s="131">
+        <v>0</v>
+      </c>
+      <c r="L78" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M78" s="131">
+        <v>0</v>
+      </c>
+      <c r="N78" s="132">
+        <v>0.64</v>
+      </c>
+      <c r="O78" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P78" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q78" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" s="121"/>
+      <c r="B79" s="131"/>
+      <c r="C79" s="98">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D79" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="99">
+        <v>54</v>
+      </c>
+      <c r="G79" s="99">
+        <v>0</v>
+      </c>
+      <c r="H79" s="99">
+        <v>-1</v>
+      </c>
+      <c r="I79" s="99">
+        <v>0</v>
+      </c>
+      <c r="J79" s="99">
+        <v>1.3</v>
+      </c>
+      <c r="K79" s="131"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="132"/>
+      <c r="O79" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P79" s="132"/>
+      <c r="Q79" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" s="121"/>
+      <c r="B80" s="131"/>
+      <c r="C80" s="98">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D80" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="99">
+        <v>65</v>
+      </c>
+      <c r="G80" s="99">
+        <v>0</v>
+      </c>
+      <c r="H80" s="99">
+        <v>-1</v>
+      </c>
+      <c r="I80" s="99">
+        <v>0</v>
+      </c>
+      <c r="J80" s="99">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K80" s="131"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="132"/>
+      <c r="O80" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P80" s="132"/>
+      <c r="Q80" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" s="121">
+        <v>44761</v>
+      </c>
+      <c r="B81" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="49">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="50">
+        <v>79</v>
+      </c>
+      <c r="G81" s="50">
+        <v>1</v>
+      </c>
+      <c r="H81" s="50">
+        <v>0</v>
+      </c>
+      <c r="I81" s="50">
+        <v>3.7</v>
+      </c>
+      <c r="J81" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="K81" s="131">
+        <v>0</v>
+      </c>
+      <c r="L81" s="37"/>
+      <c r="M81" s="131">
+        <v>0</v>
+      </c>
+      <c r="N81" s="133">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O81" s="37"/>
+      <c r="P81" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q81" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82" s="121"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="98">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D82" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="99">
+        <v>27</v>
+      </c>
+      <c r="G82" s="99">
+        <v>0</v>
+      </c>
+      <c r="H82" s="99">
+        <v>-1</v>
+      </c>
+      <c r="I82" s="99">
+        <v>0</v>
+      </c>
+      <c r="J82" s="99">
+        <v>1.2</v>
+      </c>
+      <c r="K82" s="131"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="133"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B83" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="98">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D83" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="99">
+        <v>235</v>
+      </c>
+      <c r="G83" s="99">
+        <v>0</v>
+      </c>
+      <c r="H83" s="99">
+        <v>-1</v>
+      </c>
+      <c r="I83" s="99">
+        <v>7</v>
+      </c>
+      <c r="J83" s="99">
+        <v>4</v>
+      </c>
+      <c r="K83" s="99">
+        <v>-1</v>
+      </c>
+      <c r="L83" s="37"/>
+      <c r="M83" s="99">
+        <v>-1</v>
+      </c>
+      <c r="N83" s="103">
+        <v>1.58</v>
+      </c>
+      <c r="O83" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="122"/>
+      <c r="G87" s="122"/>
+      <c r="H87" s="122"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
+      <c r="G88" s="126"/>
+      <c r="H88" s="126"/>
+      <c r="I88" s="126"/>
+      <c r="J88" s="126"/>
+      <c r="K88" s="126"/>
+      <c r="L88" s="126"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+    </row>
+    <row r="89" spans="1:24" ht="18.75">
+      <c r="A89" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I89" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J89" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K89" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L89" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M89" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N89" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O89" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q89" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R89" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="S89" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="T89" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90" s="121">
+        <v>44768</v>
+      </c>
+      <c r="B90" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="104">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D90" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="105">
+        <v>242</v>
+      </c>
+      <c r="G90" s="105"/>
+      <c r="H90" s="105"/>
+      <c r="I90" s="50">
+        <v>6.1</v>
+      </c>
+      <c r="J90" s="105">
+        <v>3.9</v>
+      </c>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="131">
+        <v>0.1</v>
+      </c>
+      <c r="O90" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P90" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q90" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="R90" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="S90" s="128">
+        <v>2.1</v>
+      </c>
+      <c r="T90" s="128">
+        <v>2.1</v>
+      </c>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91" s="121"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="104">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D91" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="105">
+        <v>77</v>
+      </c>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="50">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J91" s="105">
+        <v>2.8</v>
+      </c>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="131"/>
+      <c r="O91" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P91" s="131"/>
+      <c r="Q91" s="130"/>
+      <c r="R91" s="50">
+        <v>1</v>
+      </c>
+      <c r="S91" s="128"/>
+      <c r="T91" s="128"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92" s="121">
+        <v>44769</v>
+      </c>
+      <c r="B92" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="107">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D92" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="100">
+        <v>139</v>
+      </c>
+      <c r="G92" s="100"/>
+      <c r="H92" s="100"/>
+      <c r="I92" s="100">
+        <v>0</v>
+      </c>
+      <c r="J92" s="100">
+        <v>4.5</v>
+      </c>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="R92" s="100">
+        <v>4.5</v>
+      </c>
+      <c r="S92" s="127">
+        <v>3.3</v>
+      </c>
+      <c r="T92" s="127">
+        <v>-1.2</v>
+      </c>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="37"/>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93" s="121"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="107">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D93" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="100">
+        <v>100</v>
+      </c>
+      <c r="G93" s="100"/>
+      <c r="H93" s="100"/>
+      <c r="I93" s="100">
+        <v>0</v>
+      </c>
+      <c r="J93" s="100">
+        <v>3.8</v>
+      </c>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="130"/>
+      <c r="R93" s="100">
+        <v>2</v>
+      </c>
+      <c r="S93" s="127"/>
+      <c r="T93" s="127"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+    </row>
+    <row r="96" spans="1:24">
+      <c r="A96" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="120"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="120"/>
+      <c r="E96" s="120"/>
+      <c r="F96" s="120"/>
+      <c r="G96" s="120"/>
+      <c r="H96" s="120"/>
+      <c r="I96" s="120"/>
+      <c r="J96" s="120"/>
+      <c r="K96" s="120"/>
+      <c r="L96" s="120"/>
+      <c r="M96" s="120"/>
+      <c r="N96" s="120"/>
+      <c r="O96" s="120"/>
+      <c r="P96" s="120"/>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" s="121">
+        <v>44770</v>
+      </c>
+      <c r="B97" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="49">
+        <v>0.40625</v>
+      </c>
+      <c r="D97" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="109">
+        <v>16</v>
+      </c>
+      <c r="G97" s="109"/>
+      <c r="H97" s="109"/>
+      <c r="I97" s="109">
+        <v>15.9</v>
+      </c>
+      <c r="J97" s="109">
+        <v>0.3</v>
+      </c>
+      <c r="N97" s="123">
+        <v>0.8</v>
+      </c>
+      <c r="O97" t="s">
+        <v>150</v>
+      </c>
+      <c r="P97" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q97" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="R97" s="109">
+        <v>14</v>
+      </c>
+      <c r="S97" s="123">
+        <v>12</v>
+      </c>
+      <c r="T97" s="123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" s="121"/>
+      <c r="B98" s="122"/>
+      <c r="C98" s="49">
+        <v>0.40625</v>
+      </c>
+      <c r="D98" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98" s="109">
+        <v>34</v>
+      </c>
+      <c r="G98" s="109"/>
+      <c r="H98" s="109"/>
+      <c r="I98" s="109">
+        <v>15.4</v>
+      </c>
+      <c r="J98" s="109">
+        <v>0.3</v>
+      </c>
+      <c r="N98" s="123"/>
+      <c r="O98" t="s">
+        <v>150</v>
+      </c>
+      <c r="P98" s="124"/>
+      <c r="Q98" s="122"/>
+      <c r="R98" s="109">
+        <v>10</v>
+      </c>
+      <c r="S98" s="123"/>
+      <c r="T98" s="123"/>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" s="121">
+        <v>44771</v>
+      </c>
+      <c r="B99" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="51">
+        <v>0.40625</v>
+      </c>
+      <c r="D99" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99" s="110">
+        <v>207</v>
+      </c>
+      <c r="G99" s="110"/>
+      <c r="H99" s="110"/>
+      <c r="I99" s="110">
+        <v>0</v>
+      </c>
+      <c r="J99" s="110">
+        <v>11</v>
+      </c>
+      <c r="N99" s="122"/>
+      <c r="R99" s="110">
+        <v>7</v>
+      </c>
+      <c r="S99" s="164">
+        <v>8</v>
+      </c>
+      <c r="T99" s="164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" s="121"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="51">
+        <v>0.40625</v>
+      </c>
+      <c r="D100" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F100" s="110">
+        <v>77</v>
+      </c>
+      <c r="G100" s="110"/>
+      <c r="H100" s="110"/>
+      <c r="I100" s="110">
+        <v>0</v>
+      </c>
+      <c r="J100" s="110">
+        <v>10.3</v>
+      </c>
+      <c r="N100" s="122"/>
+      <c r="R100" s="110">
+        <v>9</v>
+      </c>
+      <c r="S100" s="164"/>
+      <c r="T100" s="164"/>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="S102" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="113">
+    <mergeCell ref="S99:S100"/>
+    <mergeCell ref="T99:T100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="N55:N58"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="R11:W22"/>
+    <mergeCell ref="R48:X59"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="M50:M54"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="N50:N54"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="K78:K80"/>
+    <mergeCell ref="P78:P80"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:N80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="S97:S98"/>
+    <mergeCell ref="T97:T98"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="S92:S93"/>
+    <mergeCell ref="T90:T91"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="S90:S91"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="P90:P91"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5743FA91-4BA7-4648-8AD0-4F2D67CB6A43}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="105" customHeight="1">
+      <c r="A1" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="111">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24103FE-0C0E-4313-8FB4-E104178B66F8}">
+  <dimension ref="A1:X9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:24" ht="18.75">
+      <c r="A7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="154">
+        <v>44802</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45">
+        <v>2</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>2.11</v>
+      </c>
+      <c r="J8" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="155">
+        <v>1</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="161">
+        <v>1</v>
+      </c>
+      <c r="N8" s="157"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="167">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D9" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="169">
+        <v>187</v>
+      </c>
+      <c r="G9" s="169">
+        <v>0</v>
+      </c>
+      <c r="H9" s="169">
+        <v>1</v>
+      </c>
+      <c r="I9" s="169">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J9" s="169">
+        <v>1</v>
+      </c>
+      <c r="K9" s="155"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>